--- a/03_plots_and_tables/overlap_1.xlsx
+++ b/03_plots_and_tables/overlap_1.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>410</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>429</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>246</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>315</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/03_plots_and_tables/overlap_1.xlsx
+++ b/03_plots_and_tables/overlap_1.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>160</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>171</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>125</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
